--- a/data/output-Wiki-Vote.xlsx
+++ b/data/output-Wiki-Vote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherna\Documents\CZ2001-Lab4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B19BE-4A6A-46A8-9E68-CDA551009145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B2668-F808-47BC-82B6-55477D727651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23115" yWindow="1935" windowWidth="10155" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scatterplot" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>k-value</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>rel. freq (no. of nodes)</t>
+  </si>
+  <si>
+    <t>start row B</t>
+  </si>
+  <si>
+    <t>end row B</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,5819 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scatterplot!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13599409448818897"/>
+                  <c:y val="-0.567568168562263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scatterplot!$C$2:$C$895</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="894"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8903717578961645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.044522437723423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2580965380214821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2958368660043291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3322045101752038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3672958299864741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4011973816621555</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4339872044851463</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4657359027997265</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4965075614664802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5263605246161616</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5553480614894135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5835189384561099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6109179126442243</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6375861597263857</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6635616461296463</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6888794541139363</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.713572066704308</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7376696182833684</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7612001156935624</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.784189633918261</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8066624897703196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8286413964890951</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8501476017100584</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8712010109078911</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8918202981106265</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9318256327243257</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9512437185814275</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.970291913552122</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9889840465642745</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0073331852324712</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0253516907351496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0430512678345503</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0604430105464191</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0775374439057197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0943445622221004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1108738641733114</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1271343850450917</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1431347263915326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.1588830833596715</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1743872698956368</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1896547420264252</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.2046926193909657</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.219507705176107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2341065045972597</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2484952420493594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2626798770413155</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2766661190160553</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.290459441148391</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.3040650932041702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.3174881135363101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3307333402863311</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.3438054218536841</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3567088266895917</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3694478524670215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.3820266346738812</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.3944491546724391</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4067192472642533</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.4188406077965983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4308167988433134</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4426512564903167</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.4543472962535073</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4659081186545837</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4773368144782069</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4886363697321396</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.499809670330265</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5108595065168497</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.5217885770490405</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.5325994931532563</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.5432947822700038</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5538768916005408</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5643481914678361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.5747109785033828</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.5849674786705723</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.5951198501345898</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.6151205168412597</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.6249728132842707</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.6347289882296359</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.6443908991413725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.6539603501575231</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.6634390941120669</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.6728288344619058</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.6821312271242199</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.6913478822291435</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.7004803657924166</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.7095302013123339</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.7184988712950942</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.7273878187123408</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.7361984483944957</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.7449321283632502</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.7535901911063645</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.7621739347977563</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7706846244656651</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7791234931115296</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.7874917427820458</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.7957905455967413</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8040210447332568</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.8121843553724171</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.8202815656050371</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.8283137373023015</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.836281906951478</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.8441870864585912</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.8520302639196169</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.8598124043616719</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.8675344504555822</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.8751973232011512</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.8828019225863706</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.8903491282217537</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.8978397999509111</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.9052747784384296</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.9126548857360524</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.9199809258281251</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.9272536851572051</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.9344739331306915</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.9416424226093039</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.9487598903781684</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.9558270576012609</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.962844630259907</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.9698132995760007</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.9767337424205742</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.9836066217083363</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.990432586778736</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.9972122737641147</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.0039463059454592</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.0172798368149243</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.0238805208462765</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.0304379213924353</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.0369526024136295</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.0434251169192468</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.0498560072495371</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.0562458053483077</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.0625950330269669</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.0689042022202315</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.0751738152338266</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.0814043649844631</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.0875963352323836</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.0937502008067623</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.0998664278241987</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.1059454739005803</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.1119877883565437</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.1179938124167554</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.1239639794032588</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.1298987149230735</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.1357984370502621</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.1416635565026603</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.1474944768134527</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.1532915944977793</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.1590552992145291</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.1647859739235145</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.1704839950381514</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.1761497325738288</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.181783550292085</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.1873858058407549</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.1929568508902104</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.1984970312658261</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5.2040066870767951</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.2094861528414214</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.2149357576089859</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.2203558250783244</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.2257466737132017</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.2311086168545868</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.2364419628299492</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.2417470150596426</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.2470240721604862</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.2522734280466299</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.2574953720277815</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.2626901889048856</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.2678581590633282</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.2729995585637468</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.2781146592305168</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.2832037287379885</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.2882670306945352</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.2933048247244923</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.3033049080590757</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.3082676974012051</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.3132059790417872</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.3181199938442161</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.3230099791384085</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.3278761687895813</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.3327187932653688</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.3375380797013179</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.3423342519648109</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5.3471075307174685</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.3518581334760666</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5.3565862746720123</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5.3612921657094255</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5.3659760150218512</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5.3706380281276624</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5.3752784076841653</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5.3798973535404597</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5.3844950627890888</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5.389071729816501</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5.393627546352362</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.3981627015177525</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.4026773818722793</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5.4071717714601188</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.4116460518550396</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.4161004022044201</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5.4205349992722862</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5.4249500174814029</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5.4293456289544411</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.43372200355424</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5.4380793089231956</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5.4424177105217932</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5.4467373716663099</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5.4510384535657002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5.4553211153577017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5.4595855141441589</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5.4638318050256105</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5.4680601411351315</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5.472270673671475</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5.476463551931511</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5.4806389233419912</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5.4847969334906548</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5.4889377261566867</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5.4930614433405482</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5.4971682252932021</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5.5012582105447274</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5.5053315359323625</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.5093883366279774</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.5134287461649825</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.5174528964647074</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5.521460917862246</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.5254529391317835</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.5294290875114234</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.5333894887275203</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.5373342670185366</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.5412635451584258</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.5451774444795623</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5.5490760848952201</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5.5529595849216173</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.5568280616995374</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.5606816310155276</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5.5645204073226937</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.5683445037610966</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.5721540321777647</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.575949103146316</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.579729825986222</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.5834963087816991</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.5872486584002496</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.5909869805108565</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.5947113796018391</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.598421958998375</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5.602118820879701</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.6058020662959978</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.6094717951849598</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.6131281063880705</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5.6167710976665717</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5.6204008657171496</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.6240175061873385</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.6276211136906369</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.6312117818213654</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.6347896031692493</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.6383546693337454</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.6419070709381138</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.6454468976432377</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.6489742381612063</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.6524891802686508</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.6559918108198524</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.6594822157596214</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.6629604801359461</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.6664266881124323</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.6698809229805196</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.6733232671714928</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.6767538022682817</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.6801726090170677</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.6835797673386814</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.6869753563398202</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.6903594543240601</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.6937321388026998</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.6970934865054046</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.7004435733906869</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5.7037824746562009</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5.7071102647488754</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5.7104270173748697</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5.7137328055093688</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5.7170277014062219</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5.7203117766074119</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5.7235851019523807</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5.7268477475871968</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5.730099782973574</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5.7333412768977459</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5.7365722974791922</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5.7397929121792339</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5.7430031878094825</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>5.7462031905401529</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>5.7493929859082531</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5.7525726388256331</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5.7557422135869123</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5.7589017738772803</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5.7620513827801769</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5.7651911027848444</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5.768320995793772</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.7714411231300158</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5.7745515455444085</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.7776523232226564</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>5.780743515792329</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5.7838251823297373</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5.7868973813667077</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5.7899601708972535</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5.7930136083841441</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5.7960577507653719</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5.7990926544605257</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5.8021183753770629</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5.8051349689164882</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5.8081424899804439</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5.8111409929767008</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.8141305318250662</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5.8171111599632042</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.8200829303523616</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.8230458954830189</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5.8260001073804499</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5.8289456176102075</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.8318824772835169</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5.8348107370626048</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5.8377304471659395</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5.8406416573733981</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>5.8435444170313602</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5.8464387750577247</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>5.8493247799468593</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>5.8522024797744745</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>5.855071922202427</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>5.857933154483459</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5.8607862234658654</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>5.8636311755980968</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>5.8664680569332965</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5.8692969131337742</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>5.872117789475416</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5.8749307308520304</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5.8777357817796387</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5.8805329864007003</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5.8833223884882786</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5.8861040314501558</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5.8888779583328805</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>5.8916442118257715</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5.8944028342648505</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5.8971538676367405</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5.8998973535824915</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5.9026333334013659</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>5.9053618480545707</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>5.9080829381689313</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>5.9107966440405271</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5.9135030056382698</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>5.916202062607435</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5.9188938542731462</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5.9215784196438159</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>5.9242557974145322</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>5.9269260259704106</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>5.9295891433898946</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>5.9322451874480109</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>5.934894195619588</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>5.9375362050824263</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>5.9401712527204316</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>5.9427993751267012</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>5.9454206086065753</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5.9480349891806457</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>5.9506425525877269</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>5.9532433342877846</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>5.955837369464831</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5.9584246930297819</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>5.9610053396232736</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>5.9635793436184459</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>5.9661467391236922</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>5.9687075599853658</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5.9712618397904622</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5.9738096118692612</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>5.9763509092979339</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>5.978885764901122</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5.9814142112544806</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>5.9839362806871907</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>5.9864520052844377</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>5.9889614168898637</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>5.9914645471079817</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>5.9939614273065693</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>5.9964520886190211</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>5.9989365619466826</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>6.0014148779611505</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>6.0038870671065387</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>6.0063531596017325</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>6.0088131854425946</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>6.0112671744041615</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>6.0137151560428022</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>6.0161571596983539</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>6.0185932144962342</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>6.0210233493495267</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>6.0234475929610332</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>6.0258659738253142</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>6.0282785202306979</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>6.0306852602612633</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>6.0330862217988015</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>6.0354814325247563</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>6.0378709199221374</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>6.0402547112774139</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>6.0426328336823811</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>6.045005314036012</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>6.0473721790462776</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>6.0497334552319577</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>6.0520891689244172</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>6.0544393462693709</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>6.0567840132286248</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>6.0591231955817966</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>6.061456918928017</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>6.0637852086876078</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>6.0661080901037474</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>6.0684255882441107</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>6.0707377280024897</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>6.0730445341004051</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>6.0753460310886842</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>6.0776422433490342</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>6.0799331950955899</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>6.0822189103764464</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>6.0844994130751715</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>6.0867747269123065</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>6.089044875446846</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>6.0913098820776979</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>6.0935697700451357</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>6.0958245624322247</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>6.0980742821662401</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>6.1003189520200642</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>6.1025585946135692</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>6.1047932324149849</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>6.1070228877422545</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>6.1092475827643655</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>6.1114673395026786</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>6.1136821798322316</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>6.1158921254830343</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>6.1180971980413483</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>6.1202974189509503</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>6.1224928095143865</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>6.1246833908942051</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>6.1268691841141854</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>6.1290502100605453</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>6.131226489483141</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>6.1333980429966486</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>6.1355648910817386</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>6.1377270540862341</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>6.1398845522262553</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>6.1420374055873559</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>6.1441856341256456</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>6.1463292576688975</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>6.1484682959176471</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>6.1506027684462792</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>6.1527326947041043</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>6.1548580940164177</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>6.156978985585555</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>6.1590953884919326</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>6.1612073216950769</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>6.1633148040346413</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>6.1654178542314204</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>6.1675164908883415</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>6.1696107324914564</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>6.1717005974109149</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>6.1737861039019366</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>6.1758672701057611</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>6.1779441140506002</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>6.1800166536525722</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>6.1820849067166321</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>6.1841488909374833</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>6.1862086239004936</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>6.1882641230825897</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>6.1903154058531475</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>6.1923624894748723</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>6.1944053911046719</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>6.1964441277945204</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>6.1984787164923079</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>6.2005091740426899</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>6.2025355171879228</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>6.2045577625686903</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>6.2065759267249279</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>6.2085900260966289</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>6.2106000770246528</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>6.2126060957515188</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>6.2146080984221914</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>6.2166061010848646</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>6.2186001196917289</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>6.2205901700997392</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>6.2225762680713688</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>6.2245584292753602</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>6.2265366692874657</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>6.2285110035911835</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>6.230481447578482</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>6.2324480165505225</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>6.2344107257183712</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>6.2363695902037044</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>6.2383246250395077</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>6.2402758451707694</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>6.2422232654551655</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>6.2441669006637364</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>6.2461067654815627</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>6.2480428745084291</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>6.2499752422594828</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>6.2519038831658884</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>6.253828811575473</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>6.2557500417533669</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>6.2576675878826391</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>6.2595814640649232</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>6.261491684321042</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>6.2633982625916236</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>6.2653012127377101</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>6.2672005485413624</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>6.2690962837062614</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>6.2709884318582994</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>6.2728770065461674</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>6.2747620212419388</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>6.2766434893416445</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>6.2785214241658442</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>6.280395838960195</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>6.2822667468960063</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>6.2841341610708019</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>6.2859980945088649</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>6.2878585601617845</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>6.2897155709089976</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>6.2915691395583204</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>6.2934192788464811</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>6.2952660014396464</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>6.2971093199339352</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>6.2989492468559423</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>6.300785794663244</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>6.3026189757449051</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>6.3044488024219811</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>6.3062752869480159</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>6.3080984415095305</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>6.3099182782265162</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>6.3117348091529148</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>6.313548046277095</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>6.315358001522335</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>6.3171646867472839</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>6.3189681137464344</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>6.3207682942505823</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>6.3225652399272843</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>6.3243589623813108</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>6.3261494731550991</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>6.3279367837291947</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>6.329720905522696</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>6.3315018498936908</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>6.3332796281396906</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>6.3350542514980592</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>6.3368257311464413</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>6.3385940782031831</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>6.3403593037277517</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>6.3421214187211516</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>6.3438804341263308</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>6.3456363608285962</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>6.3473892096560105</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>6.3491389913797978</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>6.3508857167147399</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>6.3526293963195668</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>6.3543700407973507</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>6.3561076606958915</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>6.3578422665080998</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>6.3595738686723777</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>6.3613024775729956</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>6.363028103540465</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>6.3647507568519108</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>6.3664704477314382</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>6.3681871863504922</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>6.3699009828282271</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>6.3716118472318568</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>6.3733197895770122</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>6.3750248198280968</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>6.3767269478986268</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>6.3784261836515865</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>6.3801225368997647</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>6.3818160174060985</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>6.3835066348840055</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>6.3851943989977258</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>6.3868793193626452</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>6.3885614055456301</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>6.39024066706535</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>6.3919171133926023</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>6.3935907539506314</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>6.3952615981154493</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>6.3969296552161463</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>6.3985949345352076</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>6.4002574453088208</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>6.4019171967271857</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>6.4035741979348151</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>6.4052284580308418</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>6.4068799860693142</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>6.4085287910594984</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>6.4101748819661672</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>6.4118182677098972</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>6.4134589571673573</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>6.4150969591715956</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>6.4167322825123261</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>6.4183649359362116</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>6.4199949281471422</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>6.4216222678065176</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>6.4232469635335194</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>6.4248690239053881</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>6.4264884574576904</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>6.4281052726845962</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>6.4297194780391376</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>6.4313310819334788</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>6.4329400927391793</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>6.4345465187874531</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>6.4361503683694279</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>6.4377516497364011</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>6.4393503711000983</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>6.4409465406329209</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>6.4425401664681985</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>6.444131256700441</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>6.4457198193855785</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>6.4473058625412127</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>6.4488893941468577</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>6.4504704221441758</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>6.4520489544372257</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>6.4536249988926917</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>6.4551985633401223</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>6.4567696555721632</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>6.4583382833447898</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>6.4599044543775346</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>6.4614681763537174</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>6.4630294569206699</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>6.4645883036899612</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>6.4661447242376191</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>6.4676987261043539</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>6.4692503167957724</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>6.4707995037826018</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>6.4723462945009009</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>6.4738906963522744</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>6.4754327167040904</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>6.4769723628896827</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>6.4785096422085688</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>6.4800445619266531</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>6.481577129276431</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>6.4831073514571989</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>6.4846352356352517</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>6.4861607889440887</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>6.4876840184846101</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>6.4892049313253173</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>6.4907235345025072</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>6.4922398350204711</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>6.4937538398516859</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>6.4952655559370083</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>6.4967749901858625</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>6.4982821494764336</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>6.4997870406558542</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>6.5012896705403893</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>6.5027900459156234</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>6.5042881735366453</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>6.5057840601282289</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>6.5072777123850116</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>6.508769136971682</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>6.5102583405231496</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>6.5117453296447279</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>6.513230110912307</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>6.5147126908725301</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>6.5161930760429643</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>6.517671272912275</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>6.5191472879403953</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>6.5206211275586963</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>6.522092798170152</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>6.523562306149512</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>6.5250296578434623</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>6.5264948595707901</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>6.5279579176225502</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>6.5294188382622256</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>6.5308776277258849</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>6.5323342922223491</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>6.5337888379333435</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>6.5352412710136587</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>6.5366915975913047</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>6.5381398237676702</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>6.5395859556176692</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>6.5410299991899032</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>6.5424719605068047</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>6.543911845564792</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>6.5453496603344199</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>6.5467854107605241</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>6.5482191027623724</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>6.5496507422338102</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>6.5510803350434044</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>6.5525078870345901</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>6.5539334040258108</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>6.5553568918106651</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>6.5567783561580422</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>6.5581978028122689</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>6.5596152374932419</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>6.5610306658965731</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>6.5624440936937196</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>6.5638555265321274</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>6.5652649700353614</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>6.5666724298032406</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>6.5680779114119758</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>6.5694814204142959</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>6.5708829623395841</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>6.5722825426940075</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>6.5736801669606457</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>6.5750758405996201</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>6.576469569048224</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>6.577861357721047</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>6.5792512120101012</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>6.5806391372849493</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>6.5820251388928259</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>6.5834092221587648</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>6.584791392385716</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>6.5861716548546747</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>6.5875500148247959</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>6.5889264775335192</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>6.5903010481966859</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>6.5916737320086582</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>6.5930445341424369</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>6.5944134597497781</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>6.5957805139613113</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>6.5971457018866513</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>6.5985090286145152</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>6.5998704992128365</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>6.6012301187288767</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>6.6025878921893364</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>6.6039438246004725</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>6.6052979209482015</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>6.6066501861982152</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>6.6080006252960866</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>6.6093492431673804</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>6.6106960447177592</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>6.6120410348330916</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>6.6133842183795597</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>6.6147256002037604</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>6.6160651851328174</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>6.6174029779744776</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>6.6187389835172192</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>6.620073206530356</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>6.6214056517641344</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>6.62273632394984</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>6.6240652277998935</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>6.6253923680079563</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>6.6267177492490248</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>6.6280413761795334</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>6.6293632534374485</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>6.6306833856423717</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>6.6320017773956303</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>6.633318433280377</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>6.6346333578616861</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>6.6359465556866466</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>6.6372580312844569</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>6.6385677891665207</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>6.6398758338265358</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>6.6411821697405911</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>6.642486801367256</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>6.6437897331476723</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>6.6450909695056444</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>6.6463905148477291</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>6.6476883735633292</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>6.6489845500247764</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>6.6502790485874224</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>6.6515718735897273</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>6.6528630293533473</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>6.654152520183219</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>6.6554403503676474</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>6.6567265241783913</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>6.6580110458707482</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>6.6592939196836376</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>6.6605751498396861</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>6.6618547405453112</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>6.6631326959908028</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>6.6644090203504076</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>6.6656837177824082</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>6.6669567924292066</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>6.6682282484174031</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>6.6694980898578793</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>6.6707663208458738</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>6.6720329454610674</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>6.6732979677676543</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>6.674561391814426</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>6.6758232216348476</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>6.6770834612471361</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>6.678342114654332</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>6.6795991858443831</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>6.6808546787902152</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>6.6821085974498091</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>6.6833609457662746</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>6.6846117276679271</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>6.6858609470683596</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>6.6871086078665147</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>6.6883547139467616</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>6.6895992691789665</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>6.6908422774185636</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>6.692083742506628</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>6.6933236682699491</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>6.694562058521095</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>6.6957989170584913</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>6.6970342476664841</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>6.6982680541154132</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>6.6995003401616779</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>6.7007311095478101</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>6.70196036600254</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>6.7031881132408628</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>6.7044143549641069</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>6.7056390948600031</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>6.7068623366027467</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>6.7080840838530698</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>6.7093043402582984</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>6.7105231094524278</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>6.7117403950561796</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>6.7129562006770698</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>6.7141705299094721</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>6.7153833863346808</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>6.7165947735209777</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>6.7178046950236912</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>6.7190131543852596</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>6.7202201551352951</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>6.7214257007906433</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>6.7226297948554485</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>6.7238324408212087</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>6.7250336421668431</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>6.7262334023587469</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>6.7274317248508551</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>6.7286286130847017</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>6.7298240704894754</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>6.7310181004820828</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>6.7322107064672059</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>6.7334018918373593</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>6.7345916599729483</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>6.7357800142423265</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>6.7369669580018554</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>6.7381524945959574</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>6.739336627357174</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>6.7405193596062229</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>6.7417006946520548</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>6.7428806357919031</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>6.7440591863113477</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>6.7452363494843626</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>6.7464121285733745</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>6.7475865268293154</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>6.7487595474916793</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>6.7499311937885702</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>6.7511014689367599</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>6.752270376141742</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>6.75343791859778</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>6.7546040994879624</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>6.7557689219842549</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>6.7569323892475532</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>6.7580945044277305</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>6.7592552706636928</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>6.7604146910834277</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>6.7615727688040552</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>6.7627295069318789</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>6.7638849085624351</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>6.7650389767805414</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>6.7661917146603505</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>6.7673431252653922</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>6.7684932116486296</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>6.7696419768525029</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>6.7707894239089796</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>6.7719355558396019</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>6.7730803756555353</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>6.7742238863576141</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>6.7753660909363917</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>6.776506992372183</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>6.7776465936351169</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>6.7787848976851768</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>6.7799219074722519</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>6.7810576259361799</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>6.7821920560067914</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>6.7833252006039597</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>6.7844570626376433</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>6.7855876450079293</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>6.7867169506050811</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>6.7878449823095792</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>6.7889717429921701</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>6.7900972355139046</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>6.7912214627261855</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>6.7923444274708089</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>6.7934661325800096</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>6.7945865808764987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scatterplot!$D$2:$D$895</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="894"/>
+                <c:pt idx="0">
+                  <c:v>6.9127428204931762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7756957499152453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5567783561580422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9939614273065693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6312117818213654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0875963352323836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0689042022202315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8751973232011512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7004803657924166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5108595065168497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3694478524670215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3174881135363101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.219507705176107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1108738641733114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0253516907351496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0430512678345503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8712010109078911</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4657359027997265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.784189633918261</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6888794541139363</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4657359027997265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4339872044851463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4011973816621555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3672958299864741</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3322045101752038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8903717578961645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-002B-4A7E-829C-003172FF77C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494258079"/>
+        <c:axId val="552610175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494258079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552610175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552610175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494258079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -978,20 +6796,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1011,6 +7345,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA6D5BF-2EB5-48CF-85CC-0E709B72E44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1318,8 +7688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +7732,12 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1394,9 +7770,11 @@
         <v>0.96753338018271262</v>
       </c>
       <c r="J2">
+        <f>SUM(F2,2)</f>
         <v>2</v>
       </c>
       <c r="K2">
+        <f>SUM(G2,2)</f>
         <v>101</v>
       </c>
     </row>
@@ -1428,9 +7806,11 @@
         <v>2.2206605762473648E-2</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J10" si="1">SUM(F3,2)</f>
         <v>102</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K10" si="2">SUM(G3,2)</f>
         <v>201</v>
       </c>
     </row>
@@ -1462,9 +7842,11 @@
         <v>6.4652143359100493E-3</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="K4">
+        <f t="shared" si="2"/>
         <v>301</v>
       </c>
     </row>
@@ -1496,9 +7878,11 @@
         <v>2.5298664792691495E-3</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
       <c r="K5">
+        <f t="shared" si="2"/>
         <v>401</v>
       </c>
     </row>
@@ -1530,9 +7914,11 @@
         <v>2.8109627547434998E-4</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
         <v>501</v>
       </c>
     </row>
@@ -1564,9 +7950,11 @@
         <v>2.8109627547434998E-4</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
         <v>502</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
     </row>
@@ -1598,9 +7986,11 @@
         <v>1.4054813773717499E-4</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="K8">
+        <f t="shared" si="2"/>
         <v>701</v>
       </c>
     </row>
@@ -1632,9 +8022,11 @@
         <v>4.2164441321152494E-4</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
         <v>702</v>
       </c>
       <c r="K9">
+        <f t="shared" si="2"/>
         <v>801</v>
       </c>
     </row>
@@ -1666,9 +8058,11 @@
         <v>1.4054813773717499E-4</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
         <v>802</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
         <v>901</v>
       </c>
     </row>
